--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/correct_predictions_17.xlsx
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1667,26 +1667,26 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1766,52 +1766,52 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1826,42 +1826,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1886,42 +1886,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,52 +1946,52 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2006,52 +2006,52 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2066,52 +2066,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2126,42 +2126,42 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2246,22 +2246,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2276,42 +2276,42 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2396,52 +2396,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2456,42 +2456,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2516,42 +2516,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2597,21 +2597,21 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2621,27 +2621,27 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2666,37 +2666,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2726,52 +2726,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2786,52 +2786,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2846,42 +2846,42 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/correct_predictions_17.xlsx
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1667,26 +1667,26 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1706,52 +1706,52 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1766,52 +1766,52 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1826,42 +1826,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1886,42 +1886,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1946,52 +1946,52 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2006,52 +2006,52 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
+          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Aircraft processor chip overheated</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2066,52 +2066,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated</t>
+          <t>Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-14</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
+          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Power off aircraft and wait for temperature to return to normal</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2126,42 +2126,42 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2246,22 +2246,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2276,42 +2276,42 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2336,52 +2336,52 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2396,52 +2396,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2456,42 +2456,42 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2516,42 +2516,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2597,21 +2597,21 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2621,27 +2621,27 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2666,37 +2666,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Aircraft in Restricted Zones</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2726,52 +2726,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+          <t>Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2786,52 +2786,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-6</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Compass data error Please contact DJI Support .</t>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2846,42 +2846,42 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
